--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H2">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>403.3222726290738</v>
+        <v>906.0228544197932</v>
       </c>
       <c r="R2">
-        <v>3629.900453661664</v>
+        <v>8154.205689778139</v>
       </c>
       <c r="S2">
-        <v>0.05983461071660117</v>
+        <v>0.09806252495702436</v>
       </c>
       <c r="T2">
-        <v>0.05983461071660118</v>
+        <v>0.09806252495702436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H3">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>51.09510220028355</v>
+        <v>82.76481525481987</v>
       </c>
       <c r="R3">
-        <v>459.855919802552</v>
+        <v>744.8833372933789</v>
       </c>
       <c r="S3">
-        <v>0.007580180310276604</v>
+        <v>0.008957971338026303</v>
       </c>
       <c r="T3">
-        <v>0.007580180310276606</v>
+        <v>0.0089579713380263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H4">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>126.6456523378915</v>
+        <v>233.4126447984256</v>
       </c>
       <c r="R4">
-        <v>1139.810871041024</v>
+        <v>2100.713803185831</v>
       </c>
       <c r="S4">
-        <v>0.01878843252863665</v>
+        <v>0.02526319639087753</v>
       </c>
       <c r="T4">
-        <v>0.01878843252863666</v>
+        <v>0.02526319639087753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H5">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>293.6451217788978</v>
+        <v>164.6817001516732</v>
       </c>
       <c r="R5">
-        <v>2642.80609601008</v>
+        <v>1482.135301365059</v>
       </c>
       <c r="S5">
-        <v>0.04356352907548983</v>
+        <v>0.01782416773739153</v>
       </c>
       <c r="T5">
-        <v>0.04356352907548983</v>
+        <v>0.01782416773739152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H6">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>254.9736535631538</v>
+        <v>529.0484735752181</v>
       </c>
       <c r="R6">
-        <v>2294.762882068384</v>
+        <v>4761.436262176962</v>
       </c>
       <c r="S6">
-        <v>0.03782644882092008</v>
+        <v>0.05726106012708555</v>
       </c>
       <c r="T6">
-        <v>0.03782644882092009</v>
+        <v>0.05726106012708556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H7">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>142.49571574056</v>
+        <v>175.9227571115414</v>
       </c>
       <c r="R7">
-        <v>1282.46144166504</v>
+        <v>1583.304814003873</v>
       </c>
       <c r="S7">
-        <v>0.02113985826902546</v>
+        <v>0.0190408328836326</v>
       </c>
       <c r="T7">
-        <v>0.02113985826902546</v>
+        <v>0.01904083288363259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J8">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>530.3620844355369</v>
+        <v>735.5173779999067</v>
       </c>
       <c r="R8">
-        <v>4773.258759919832</v>
+        <v>6619.65640199916</v>
       </c>
       <c r="S8">
-        <v>0.07868151851417973</v>
+        <v>0.07960802631477777</v>
       </c>
       <c r="T8">
-        <v>0.07868151851417975</v>
+        <v>0.07960802631477777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J9">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>67.18921008439177</v>
@@ -1013,10 +1013,10 @@
         <v>604.702890759526</v>
       </c>
       <c r="S9">
-        <v>0.009967811109337961</v>
+        <v>0.007272160474321345</v>
       </c>
       <c r="T9">
-        <v>0.009967811109337961</v>
+        <v>0.007272160474321342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J10">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>166.5369277049458</v>
+        <v>189.4864524185793</v>
       </c>
       <c r="R10">
-        <v>1498.832349344512</v>
+        <v>1705.378071767214</v>
       </c>
       <c r="S10">
-        <v>0.0247064764715547</v>
+        <v>0.02050888659007872</v>
       </c>
       <c r="T10">
-        <v>0.02470647647155471</v>
+        <v>0.02050888659007872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J11">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>386.1384541344489</v>
+        <v>133.6900627939385</v>
       </c>
       <c r="R11">
-        <v>3475.24608721004</v>
+        <v>1203.210565145446</v>
       </c>
       <c r="S11">
-        <v>0.05728531661600928</v>
+        <v>0.01446981724057307</v>
       </c>
       <c r="T11">
-        <v>0.05728531661600929</v>
+        <v>0.01446981724057306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J12">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>335.2861162325769</v>
+        <v>429.4862367109802</v>
       </c>
       <c r="R12">
-        <v>3017.575046093192</v>
+        <v>3865.376130398822</v>
       </c>
       <c r="S12">
-        <v>0.04974115144369334</v>
+        <v>0.04648503578106747</v>
       </c>
       <c r="T12">
-        <v>0.04974115144369335</v>
+        <v>0.04648503578106747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J13">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>187.37949761778</v>
+        <v>142.8156523977069</v>
       </c>
       <c r="R13">
-        <v>1686.41547856002</v>
+        <v>1285.340871579362</v>
       </c>
       <c r="S13">
-        <v>0.02779856223448235</v>
+        <v>0.01545751678247941</v>
       </c>
       <c r="T13">
-        <v>0.02779856223448235</v>
+        <v>0.01545751678247941</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H14">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I14">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J14">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>129.7515579594578</v>
+        <v>313.0892396834133</v>
       </c>
       <c r="R14">
-        <v>1167.76402163512</v>
+        <v>2817.80315715072</v>
       </c>
       <c r="S14">
-        <v>0.01924920711610862</v>
+        <v>0.03388691712406297</v>
       </c>
       <c r="T14">
-        <v>0.01924920711610863</v>
+        <v>0.03388691712406296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H15">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I15">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J15">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>16.43764692529555</v>
+        <v>28.60057332357689</v>
       </c>
       <c r="R15">
-        <v>147.93882232766</v>
+        <v>257.4051599121919</v>
       </c>
       <c r="S15">
-        <v>0.002438596307763382</v>
+        <v>0.003095555947233281</v>
       </c>
       <c r="T15">
-        <v>0.002438596307763382</v>
+        <v>0.003095555947233279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H16">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I16">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J16">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>40.74278019043555</v>
+        <v>80.65909942109866</v>
       </c>
       <c r="R16">
-        <v>366.6850217139199</v>
+        <v>725.931894789888</v>
       </c>
       <c r="S16">
-        <v>0.006044368381432718</v>
+        <v>0.008730061180474124</v>
       </c>
       <c r="T16">
-        <v>0.00604436838143272</v>
+        <v>0.008730061180474124</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H17">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I17">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J17">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>94.46766177737776</v>
+        <v>56.90813210587023</v>
       </c>
       <c r="R17">
-        <v>850.2089559963998</v>
+        <v>512.173188952832</v>
       </c>
       <c r="S17">
-        <v>0.01401468788448328</v>
+        <v>0.006159397743297837</v>
       </c>
       <c r="T17">
-        <v>0.01401468788448328</v>
+        <v>0.006159397743297834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H18">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I18">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J18">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>82.02678362585777</v>
+        <v>182.8203157782471</v>
       </c>
       <c r="R18">
-        <v>738.24105263272</v>
+        <v>1645.382842004224</v>
       </c>
       <c r="S18">
-        <v>0.01216902958171588</v>
+        <v>0.0197873836087018</v>
       </c>
       <c r="T18">
-        <v>0.01216902958171588</v>
+        <v>0.0197873836087018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H19">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I19">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J19">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>45.84185494979999</v>
+        <v>60.79264115510045</v>
       </c>
       <c r="R19">
-        <v>412.5766945482</v>
+        <v>547.133770395904</v>
       </c>
       <c r="S19">
-        <v>0.006800838266551147</v>
+        <v>0.006579833898663769</v>
       </c>
       <c r="T19">
-        <v>0.006800838266551147</v>
+        <v>0.006579833898663768</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H20">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>741.5820890823303</v>
+        <v>496.7908425932467</v>
       </c>
       <c r="R20">
-        <v>6674.238801740973</v>
+        <v>4471.11758333922</v>
       </c>
       <c r="S20">
-        <v>0.1100169235023954</v>
+        <v>0.0537696860102044</v>
       </c>
       <c r="T20">
-        <v>0.1100169235023954</v>
+        <v>0.0537696860102044</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H21">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>93.94773163546344</v>
+        <v>45.38163922349077</v>
       </c>
       <c r="R21">
-        <v>845.529584719171</v>
+        <v>408.4347530114169</v>
       </c>
       <c r="S21">
-        <v>0.01393755398994658</v>
+        <v>0.00491183871050816</v>
       </c>
       <c r="T21">
-        <v>0.01393755398994658</v>
+        <v>0.004911838710508159</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H22">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>232.8612968029724</v>
+        <v>127.9849221414903</v>
       </c>
       <c r="R22">
-        <v>2095.751671226752</v>
+        <v>1151.864299273413</v>
       </c>
       <c r="S22">
-        <v>0.03454598466468225</v>
+        <v>0.0138523267491524</v>
       </c>
       <c r="T22">
-        <v>0.03454598466468226</v>
+        <v>0.0138523267491524</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H23">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>539.9204994014822</v>
+        <v>90.29834090711745</v>
       </c>
       <c r="R23">
-        <v>4859.28449461334</v>
+        <v>812.685068164057</v>
       </c>
       <c r="S23">
-        <v>0.08009955088523366</v>
+        <v>0.009773355347037759</v>
       </c>
       <c r="T23">
-        <v>0.08009955088523367</v>
+        <v>0.009773355347037757</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H24">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>468.8159010851703</v>
+        <v>290.0880873787832</v>
       </c>
       <c r="R24">
-        <v>4219.343109766533</v>
+        <v>2610.792786409049</v>
       </c>
       <c r="S24">
-        <v>0.06955087492770826</v>
+        <v>0.03139740920391504</v>
       </c>
       <c r="T24">
-        <v>0.06955087492770827</v>
+        <v>0.03139740920391504</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H25">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>262.00455004713</v>
+        <v>96.46204211121989</v>
       </c>
       <c r="R25">
-        <v>2358.04095042417</v>
+        <v>868.158379000979</v>
       </c>
       <c r="S25">
-        <v>0.03886951284851554</v>
+        <v>0.01044047770516194</v>
       </c>
       <c r="T25">
-        <v>0.03886951284851554</v>
+        <v>0.01044047770516194</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H26">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>259.737647104911</v>
+        <v>342.4633454143867</v>
       </c>
       <c r="R26">
-        <v>2337.6388239442</v>
+        <v>3082.17010872948</v>
       </c>
       <c r="S26">
-        <v>0.03853320795219575</v>
+        <v>0.03706619561828868</v>
       </c>
       <c r="T26">
-        <v>0.03853320795219575</v>
+        <v>0.03706619561828868</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H27">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>32.90500556187222</v>
+        <v>31.28388580541977</v>
       </c>
       <c r="R27">
-        <v>296.1450500568499</v>
+        <v>281.554972248778</v>
       </c>
       <c r="S27">
-        <v>0.004881600476929112</v>
+        <v>0.00338598173057262</v>
       </c>
       <c r="T27">
-        <v>0.004881600476929112</v>
+        <v>0.00338598173057262</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H28">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>81.5592046030222</v>
+        <v>88.22655500327132</v>
       </c>
       <c r="R28">
-        <v>734.0328414271999</v>
+        <v>794.0389950294419</v>
       </c>
       <c r="S28">
-        <v>0.01209966220304808</v>
+        <v>0.009549117563288223</v>
       </c>
       <c r="T28">
-        <v>0.01209966220304809</v>
+        <v>0.009549117563288223</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H29">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>189.1060776721111</v>
+        <v>62.24726637672644</v>
       </c>
       <c r="R29">
-        <v>1701.954699049</v>
+        <v>560.225397390538</v>
       </c>
       <c r="S29">
-        <v>0.02805470788383744</v>
+        <v>0.006737273880892654</v>
       </c>
       <c r="T29">
-        <v>0.02805470788383744</v>
+        <v>0.006737273880892653</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H30">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>164.2018339789111</v>
+        <v>199.9725605850962</v>
       </c>
       <c r="R30">
-        <v>1477.8165058102</v>
+        <v>1799.753045265866</v>
       </c>
       <c r="S30">
-        <v>0.02436005517631282</v>
+        <v>0.02164384056918075</v>
       </c>
       <c r="T30">
-        <v>0.02436005517631282</v>
+        <v>0.02164384056918075</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H31">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>91.76657090549999</v>
+        <v>66.49622097394288</v>
       </c>
       <c r="R31">
-        <v>825.8991381494999</v>
+        <v>598.465988765486</v>
       </c>
       <c r="S31">
-        <v>0.01361396932318129</v>
+        <v>0.007197155454738412</v>
       </c>
       <c r="T31">
-        <v>0.01361396932318129</v>
+        <v>0.007197155454738412</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H32">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N32">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q32">
-        <v>72.24288643441956</v>
+        <v>1207.811676233294</v>
       </c>
       <c r="R32">
-        <v>650.1859779097761</v>
+        <v>10870.30508609964</v>
       </c>
       <c r="S32">
-        <v>0.01071754594327237</v>
+        <v>0.1307263520630074</v>
       </c>
       <c r="T32">
-        <v>0.01071754594327237</v>
+        <v>0.1307263520630074</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H33">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q33">
-        <v>9.152129490763111</v>
+        <v>110.3331000519616</v>
       </c>
       <c r="R33">
-        <v>82.36916541686799</v>
+        <v>992.9979004676539</v>
       </c>
       <c r="S33">
-        <v>0.001357758156369817</v>
+        <v>0.01194179851496137</v>
       </c>
       <c r="T33">
-        <v>0.001357758156369817</v>
+        <v>0.01194179851496137</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H34">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N34">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O34">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P34">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q34">
-        <v>22.68470674733511</v>
+        <v>311.1604926882007</v>
       </c>
       <c r="R34">
-        <v>204.162360726016</v>
+        <v>2800.444434193806</v>
       </c>
       <c r="S34">
-        <v>0.003365374762467824</v>
+        <v>0.033678161021023</v>
       </c>
       <c r="T34">
-        <v>0.003365374762467824</v>
+        <v>0.03367816102102299</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H35">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N35">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q35">
-        <v>52.59756929963555</v>
+        <v>219.5358310608149</v>
       </c>
       <c r="R35">
-        <v>473.3781236967199</v>
+        <v>1975.822479547334</v>
       </c>
       <c r="S35">
-        <v>0.007803077829469418</v>
+        <v>0.02376125260785909</v>
       </c>
       <c r="T35">
-        <v>0.007803077829469418</v>
+        <v>0.02376125260785908</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H36">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N36">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q36">
-        <v>45.67075499713956</v>
+        <v>705.2702043446266</v>
       </c>
       <c r="R36">
-        <v>411.036794974256</v>
+        <v>6347.431839101639</v>
       </c>
       <c r="S36">
-        <v>0.006775454845510867</v>
+        <v>0.07633425214122248</v>
       </c>
       <c r="T36">
-        <v>0.006775454845510867</v>
+        <v>0.07633425214122248</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H37">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N37">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q37">
-        <v>25.52376228204</v>
+        <v>234.5211923936998</v>
       </c>
       <c r="R37">
-        <v>229.71386053836</v>
+        <v>2110.690731543298</v>
       </c>
       <c r="S37">
-        <v>0.003786560980661403</v>
+        <v>0.02538317898921633</v>
       </c>
       <c r="T37">
-        <v>0.003786560980661402</v>
+        <v>0.02538317898921633</v>
       </c>
     </row>
   </sheetData>
